--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_13.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_13.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_13" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_13_WF" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1583,4 +1584,4125 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B410"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>字符</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超过</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>个字符</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>长度</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>数</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>超出</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>警告</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>最大</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>空格</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>字数</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>继续</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>达到</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>填写</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>文本</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>群名</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>框</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>编辑</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>群时</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>知道</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>需求</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>导致系统</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>遇到困难</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>输入框</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>响应</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>符号</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>规定</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>仅</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>崩溃</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>邮箱地址</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>字</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>上限</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>规则</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>输入法</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>丢失</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>申请理由</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>命名</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>截断</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>程序</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>第二步</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>查找</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>应用程序</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>前</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>想要</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>简介</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>后续</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>引发</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>误解</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>更改</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>设定</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>得知</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>正确处理</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>数时</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>提交</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>用于</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>任意</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>字符串</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>准确性</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>完整性</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>符合</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>修复</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>范围</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>阻止</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>汉字</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>实际上</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>超限</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>申请</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>时才</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>认为</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>整个</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>文字</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>完全</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>空格键</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>相反</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>确保</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>保存</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>完整</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>当群</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>准确</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>框中</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>加载</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>支持</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>检索</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>自动</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>动态</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>申请加入</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>意见反馈</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>一行</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>引起</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>安全性</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>个性化</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>实施</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>对话框</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>后面</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>困难</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>大量</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>变得</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>第一步</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>勾选</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>较长</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>虚化</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>持续</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>编写</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>表情符号</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>优化</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>开头</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>不会</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>字段</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>发起</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>交互</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>用户名</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>之外</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>第三方</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>令人困惑</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>用户注册</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>系统故障</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>进一步</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>调查</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>数字</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>名字</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>误以为</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>永远</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>测试环境</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>错误信息</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>发送信息</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>限定</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>是因为</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>书</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>这一</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>多于</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>邮箱</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>视为</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>存储</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>手机号码</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>稳定性</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>清空</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>一部分</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>通知</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>防止</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>某种</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>潜在</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>错误行为</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>不同</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>立即</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>弹窗</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>不知情</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>表现</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>输出</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>下方</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>一次性</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>运行</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>两个</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>受限</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>新群</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>与此相反</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>无限</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>长</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>背景</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>段</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>提高</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>适当</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>这远</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>重新</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>软甲</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>直至</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>最大值</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>以内</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>最终</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>平台</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>邀请</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>窗口</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>界面设计</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>不再</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>判断</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>一定</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>保护</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>方式</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>低于</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>感</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>溢出</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>算</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>更长</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>卡死</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>段落</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>延长</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>一系列</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>原始</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>后果</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>故意</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>软件设计</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>拒绝</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>入口处</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>能够</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>能力</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>到达</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>发布</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>不知不觉</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>预设</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>多余</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>告诉</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>接近</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>介绍</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>时未</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>栏中</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>如图</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>应有</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>简单</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>同一</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>换到</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>开发者</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>个性</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>签名</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>英文字母</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>两次</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>负面影响</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>令人</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>意外</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>它会</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>变为</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>一个点</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>号</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>不断</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>红米</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>5g</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>设备</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>文本框</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>换行</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>注意</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>计算</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>如图所示</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>红色</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>通常</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>明确指出</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>位</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>不可</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>预见</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>建立</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>框时</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>过长</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>正确理解</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>空且</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>键入</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>建群</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>占用</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>格</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>直观</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>常见</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>中间</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>前半部</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>分和后</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>半</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>之间</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>不连贯</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>异常情况</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>组成</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>最多</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>整行</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>不想</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>精确</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>副</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>过滤</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>常用</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>unicode</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>表示</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>新建</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>做</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>属于</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>不全</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>误</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>刚刚</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>何种</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>原则</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>来看</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>无限期</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>单个</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>成行</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_13.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_13.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,1147 +437,1756 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recurrent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>processed_result</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>10010000008487</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>不正常退出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>在输入验证框时，用户遇到了一个软件崩溃的问题。当在验证框中输入了过多的字符后，程序似乎不能正常处理，导致系统卡死或崩溃。这可能会对用户体验造成负面影响，并可能需要开发者的注意来修复这个问题。</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>输入 验证 框时 遇到 软件 崩溃 验证 框中 输入 字符 程序 不能 正常 处理 导致系统 卡死 崩溃 造成 负面影响 开发者 注意 修复</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>不正常退出</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>10010000007483</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>在编辑界面中，当用户尝试输入超过允许的最大字符数时，系统并未提供任何提示或警告。只有在用户点击“发布”按钮后，才会收到超出字数限制的提示。</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>编辑 界面 输入 超过 允许 最大 字符 数时 系统 并未 提供 提示 警告 点击 发布 按钮 收到 超出 字数 限制 提示</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10010000007665</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>此软件界面在用户尝试输入超过1000字符的评论内容后，未实施任何长度限制或提示，导致用户可以无限制地输入大量文本。这违反了预期的用户交互和界面设计原则，可能导致性能问题并影响用户体验。</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>软件 界面 输入 超过 1000 字符 评论 内容 未 实施 长度 限制 提示 限制 输入 大量 文本 违反 预期 交互 界面设计 原则 性能</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10010000008286</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>该软件在创建群组时存在一个字符限制问题。当尝试输入的群名称长度达到或超过64个字符时，用户将无法继续输入，尽管系统并没有明确提示群名称的长度限制。然而，令人困惑的是，即使超过了这个限制，群组仍然可以成功创建，没有给出任何关于字符超限的错误信息。这可能会给用户造成混淆，让他们误以为可以输入更长的群名称，而实际上这是不被允许的。</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>创建 群组 字符 限制 输入 群 名称 长度 达到 超过 64 个字符 无法 继续 输入 系统 没有 明确 提示 群 名称 长度 限制 令人困惑 超过 限制 群组 仍然 成功 创建 没有 给出 字符 超限 错误信息 造成 混淆 误以为 输入 更长 群 名称 实际上 允许</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10010000009104</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>该软件在创建群聊时存在一个bug。尽管群名称的规则明确指出不允许为空且最多不得超过64个字符，但当用户尝试输入超过64个字符时，系统并没有给出任何提示信息。相反，用户可以成功地创建了群聊。这违反了软件的设计规则和预期行为。</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>创建 群聊 群 名称 规则 明确指出 允许 空且 最多 超过 64 个字符 输入 超过 64 个字符 系统 没有 给出 提示信息 相反 成功 创建 群聊 违反 软件 设计 规则 预期 行为</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10010000008859</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>该软件在群名称编辑功能中，当用户输入的文本超出限制长度时，系统正确地显示了红色警告。然而，在群简介部分，当文本超出其设定的长度限制时，系统并没有给出任何提示，这可能会导致用户无法得知他们的输入已超出限制，从而可能影响他们正常使用或编辑群简介的功能。</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>群 名称 编辑 输入 文本 超出 限制 长度 系统 正确 红色 警告 群 简介 部分 文本 超出 设定 长度 限制 系统 没有 给出 提示 无法 得知 输入 超出 限制 正常 编辑 群 简介</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10010000009438</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>该软件中群组搜索框的功能存在缺陷。用户可以输入超过群组名称长度的字符串，并且没有给出任何关于输入限制或已达到最大字符数的提示。这可能会导致用户误解其功能，并可能引发后续的问题或错误。</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>群组 搜索 框 缺陷 输入 超过 群组 名称 长度 字符串 没有 给出 输入 限制 达到 最大 字符 数 提示 误解 引发 后续 错误</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10010000008055</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>根据提供的图片和问题描述，软件在搜索框和加入群的入口处允许用户输入超过64个字符。这可能不是一个bug，而是软件设计时故意允许的功能。然而，如果这个功能不是预期的或者与原始需求不符，那么它可能会引起用户的混淆或不便。</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>提供 图片 软件 搜索 框 加入 群 入口处 允许 输入 超过 64 个字符 软件设计 故意 允许 预期 原始 需求 不符 引起 混淆 不便</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10010000008614</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>搜索时输入的字符“******”导致系统不断加载，无法检索出任何相关数据。</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>搜索 输入 字符 * * * * * * 导致系统 不断 加载 无法 检索 出 相关 数据</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10010000009322</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>在个人设置中，当用户选择个性签名并尝试输入15个英文字母后，紧接着输入两次空格。令人意外的是，当最后一个英文字符被输入时，它会自动变为一个点号“.”。此现象仅在红米NOTE 5G设备上发生。</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>个人 设置 选择 个性 签名 输入 15 英文字母 输入 两次 空格 令人 意外 最后 英文 字符 输入 它会 自动 变为 一个点 号 . 现象 仅 红米 NOTE   5G 设备 发生</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10010000009582</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>在意见反馈的文本框中，当用户尝试通过输入空格来换行时，系统并未正确响应。尽管空格被正常计算为字符长度，但文本并没有像预期的那样换到下一行，而是继续在同一行显示。这可能导致用户在填写反馈时遇到困难，因为他们无法使用简单的空格来创建新的段落。</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>意见反馈 文本框 输入 空格 换行 系统 并未 正确 响应 空格 正常 计算 字符 长度 文本 没有 预期 换到 一行 继续 同一 行 填写 反馈 遇到困难 无法 简单 空格 创建 新 段落</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10010000008121</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>该软件在用户尝试将群名称延长至其最大允许字符数时，没有提供任何提示或警告。这可能导致群名称超出限制，从而引发一系列问题，如功能错误、数据丢失或其他未预期的后果。</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>群 名称 延长 最大 允许 字符 数时 没有 提供 提示 警告 群 名称 超出 限制 引发 一系列 错误 数据 丢失 未 预期 后果</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10010000009024</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>这个搜索功能存在一个明显的bug。当用户尝试在搜索群时输入超过64个字符，系统并没有限制或拒绝这种输入。尽管群名的有效字符数被限制为64个，但用户仍然能够输入更多的字符，这可能会导致系统处理超出其能力范围的请求，从而导致性能下降或其他未预期的问题。</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>搜索 明显 搜索 群时 输入 超过 64 个字符 系统 没有 限制 拒绝 输入 群名 有效 字符 数 限制 64 仍然 能够 输入 更 字符 导致系统 处理 超出 能力 范围 请求 性能 下降 未 预期</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10010000008799</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>该软件在用户输入信息时没有提供到达字符限制前的提示，这导致用户在不知不觉中超出了预设的字数限制。当用户试图编辑或删除多余的字符以符合限制时，可能会遇到困难，因为没有明确的警告告诉他们已经接近最大字符数。这种设计缺陷可能会导致用户误解其输入的长度，从而影响信息的完整性和准确性。</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>输入 信息 没有 提供 到达 字符 限制 前 提示 不知不觉 超出 预设 字数 限制 试图 编辑 删除 多余 字符 符合 限制 遇到困难 没有 明确 警告 告诉 接近 最大 字符 数 设计 缺陷 误解 输入 长度 信息 完整性 准确性</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10010000008812</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>该输入框没有长度限制，导致用户可以输入任意长度的文本，这可能会导致性能问题或超出预期的功能。</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>输入框 没有 长度 限制 输入 任意 长度 文本 性能 超出 预期</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10010000009014</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>该问题描述的bug是：在尝试输入群简介信息时，输入的字符数超过了允许的最大长度255个字符。当用户试图输入超过这个限制的内容时，系统没有提供任何错误提示或警告，导致用户无法正常提交他们的输入，这可能会影响群组的介绍信息的完整性和准确性。</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>输入 群 简介 信息 输入 字符 数 超过 允许 最大 长度 255 个字符 试图 输入 超过 限制 内容 系统 没有 提供 错误 提示 警告 无法 正常 提交 输入 群组 介绍 信息 完整性 准确性</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10010000009084</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>该软件在用户尝试更改群名称时，存在一个字符长度限制的问题。当输入的字符数超过64个时，软件无法正确处理，导致用户无法完成群名称的更改。</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>更改 群 名称 字符 长度 限制 输入 字符 数 超过 64 软件 无法 正确处理 无法 完成 群 名称 更改</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10010000009228</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>该搜索框功能异常，用户输入字符时未显示预期的字符长度限制。</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>搜索 框 异常 输入 字符 时未 预期 字符 长度 限制</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10010000009131</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>在搜索栏中输入的群名称包含多个字符和符号，导致系统无法正确识别和检索。</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>搜索 栏中 输入 群 名称 包含 多个 字符 符号 导致系统 无法 正确 识别 检索</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10010000008126</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>在进行主要步骤的第二步时，当输入字符数超过255个（如图显示），搜索框并未对输入字符数设置任何限制，导致用户可以无限制地输入字符，这违反了软件应有的功能限制。</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>进行 第二步 输入 字符 数 超过 255 如图 搜索 框 并未 输入 字符 数 设置 限制 限制 输入 字符 违反 软件 应有 限制</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10010000008756</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>在进行主要步骤的第二步时，当输入字符数超过255个（如图所示）后，发现搜索框并未对输入的字符数进行限制。</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>进行 第二步 输入 字符 数 超过 255 如图所示 发现 搜索 框 并未 输入 字符 数 进行 限制</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10010000009433</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>该软件中存在一个bug，即尽管需求规定不允许使用空白作为群名称，但应用程序仅对常见的空白副字符进行了过滤。然而，某些不常用的Unicode字符仍可被用于创建无名称的群聊。</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>需求 规定 允许 空白 群 名称 应用程序 仅 常见 空白 副 字符 进行 过滤 常用 Unicode 字符 用于 创建 名称 群聊</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10010000009266</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>创建群的时候，群名称最多只能显示64个字符，超过的字符用...表示，显示不出来</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>创建 群 群 名称 只能 64 个字符 超过 字符 ... 表示</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10010000008696</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>新建群组，填写信息，当群名称超过64个字符时，系统不做任何提示，属于功能不完整和用户体验bug</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>新建 群组 填写 信息 当群 名称 超过 64 个字符 系统 做 提示 属于 完整</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10010000009015</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>该应用程序在处理群组名称输入时存在缺陷。当用户尝试创建一个超过64个字符的群组名称时，系统并未提供任何关于字符限制的警告信息，而是允许创建。然而，当名称被保存或提交后，系统会自动截断超出长度的部分，导致群组名称显示不全，且不提示用户已超出最大字符数限制。这可能会导致用户无法正确看到他们所创建的群组名称，从而影响用户体验。</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>应用程序 处理 群组 名称 输入 缺陷 创建 超过 64 个字符 群组 名称 系统 并未 提供 字符 限制 警告 信息 允许 创建 名称 保存 提交 系统 自动 截断 超出 长度 部分 群组 名称 不全 提示 超出 最大 字符 数 限制 无法 正确 看到 创建 群组 名称</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10010000009225</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>该软件的用户界面在输入时存在一个bug。当用户开始输入或编辑消息时，如果误按空格键，软件并没有提供任何提示或警告，导致用户不知道他们刚刚进行了何种操作。这可能会导致用户混淆，甚至丢失他们原本想要输入的内容。</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>用户界面 输入 输入 编辑 消息 误 空格键 软件 没有 提供 提示 警告 知道 刚刚 进行 何种 混淆 丢失 原本 想要 输入 内容</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10010000009516</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>该软件界面显示了一个搜索框，用于输入群名称进行搜索。然而，从问题描述来看，当用户尝试在搜索框中输入内容时，没有明确的字符限制或长度规定，导致用户可以无限期地输入字符。这可能导致软件性能下降，响应时间增加，甚至可能引起软件崩溃。</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>界面显示 搜索 框 用于 输入 群 名称 进行 搜索 来看 搜索 框中 输入 内容 没有 明确 字符 限制 长度 规定 无限期 输入 字符 软件 性能 下降 响应 时间 增加 引起 软件 崩溃</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10010000009520</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>该软件在用户界面的设计上存在一个明显的bug。当用户尝试编辑群名称并尝试删除部分文字时，系统并没有按单个字符进行删除，而是成行地删除了文本。这意味着用户无法精确地删除他们不想显示的字符，只能删除整行文本。这种设计缺陷可能会导致用户在尝试修改或输入群组名称时遇到困难，从而影响用户体验。</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>用户界面 设计 明显 编辑 群 名称 删除 部分 文字 系统 没有 单个 字符 进行 删除 成行 删除 文本 意味着 无法 精确 删除 不想 字符 只能 删除 整行 文本 设计 缺陷 修改 输入 群组 名称 遇到困难</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10010000009125</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>问题描述：
 在用户界面中，当用户尝试加入或查找群组时，系统没有提供任何关于输入超过64位字符的群名的提示。这可能导致用户错误地认为他们可以输入任意长度的群名，而实际上这可能会导致程序崩溃或其他不可预见的问题。</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t xml:space="preserve">
  用户界面 加入 查找 群组 系统 没有 提供 输入 超过 64 位 字符 群名 提示 错误 认为 输入 任意 长度 群名 实际上 程序 崩溃 不可 预见</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10010000009133</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>在尝试建立群组的过程中，当群名称输入超过64个字符时，用户界面并未提供任何关于输入长度过长的提示信息。这可能导致用户无法正确理解他们输入的信息是否超出了允许的范围，进而影响他们的操作流程和体验。</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>建立 群组 过程 当群 名称 输入 超过 64 个字符 用户界面 并未 提供 输入 长度 过长 提示信息 无法 正确理解 输入 信息 是否 超出 允许 范围</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10010000009560</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>创建群时，群名称键入空格键提示群名称为空白无法建群。但空白占用了字符数，超过64字符的空白格也算字符。</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>创建 群时 群 名称 键入 空格键 提示 群 名称 空白 无法 建群 空白 占用 字符 数 超过 64 字符 空白 格 算 字符</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10010000009655</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>该输入框未明确显示群名称的字符数限制，导致用户无法直观地知道他们已经输入了多少字符。</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>输入框 未 明确 群 名称 字符 数 限制 无法 直观 知道 输入 字符</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10010000010012</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>输入字符，不能正常输入</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>输入 字符 不能 正常 输入</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>10010000008387</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>该软件在用户尝试输入邮箱地址时存在bug。具体来说，用户在申请过程中无法输入包含“@”符号的邮箱地址，这导致用户无法完成邮箱地址的填写。这可能是由于软件界面的某个部分未正确响应用户的输入或者与邮箱地址验证功能相关的代码存在问题。</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>输入 邮箱地址 具体来说 申请 过程 无法 输入 包含 @ 符号 邮箱地址 无法 完成 邮箱地址 填写 软件 界面 部分 未 正确 响应 输入 邮箱地址 验证 相关 代码</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10010000009533</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>在意见反馈功能中，当用户尝试输入99个字符时，中间的字符被错误地显示为空格，导致输入内容的前半部分和后半部分之间出现了不连贯的空白。</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>意见反馈 输入 99 个字符 中间 字符 错误 空格 输入 内容 前半部 分和后 半 部分 之间 出现 不连贯 空白</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10010000008749</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>问题描述：
 在手机的群组列表中，存在一个异常情况，即有一个群组的名称由64个汉字或66个英文符号组成。这与正常的群组名称长度限制不符，通常群组名称的长度限制为30个汉字或30个英文字符。这种情况可能是由于某种错误或系统故障导致的，需要进一步调查和修复。</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t xml:space="preserve">
  手机 群组 列表 异常情况 群组 名称 64 汉字 66 英文 符号 组成 正常 群组 名称 长度 限制 不符 通常 群组 名称 长度 限制 30 汉字 30 英文 字符 情况 某种 错误 系统故障 进一步 调查 修复</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10010000009626</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>1.创建群时名字不能超过64个字符</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>. 创建 群时 名字 不能 超过 64 个字符</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>10010000008771</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>群名称有上限，但是输入时并不提示，能输入，但是永远只显示前63个字。</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>群 名称 上限 输入 提示 输入 永远 前 63 字</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10010000008875</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>发送信息有字数限制，但是系统在超过限定后不给以提示。</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>发送信息 字数 限制 系统 超过 限定 提示</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10010000009818</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>这个bug描述的问题是：在尝试添加群组名称时，即使按照需求书的要求，群组名称不多于64个字符并且空格也被视为字符，当在群组名称中输入空格作为字符时，该空格并不能被成功添加到群组名称中。</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>添加 群组 名称 需求 书 要求 群组 名称 多于 64 个字符 空格 视为 字符 群组 名称 输入 空格 字符 空格 不能 成功 添加 群组 名称</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>性能</t>
-        </is>
-      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>10010000008942</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>该软件在设计上存在缺陷，导致用户在输入群聊申请条件时，系统并未对字符长度进行有效的限制。尽管提示信息表明最大长度为255个字符，但用户仍可以输入超过这个限制的字符。这可能会导致数据存储或处理的问题，影响软件的稳定性和用户体验。</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>设计 缺陷 输入 群聊 申请 系统 并未 字符 长度 进行 有效 限制 提示信息 表明 最大 长度 255 个字符 输入 超过 限制 字符 数据 存储 处理 软件 稳定性</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>页面布局缺陷</t>
-        </is>
-      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>10010000008224</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>在创建群聊的过程中，当用户试图填写群名时，系统默认的输入法限制了用户的输入。具体来说，用户只能通过第三方输入法来输入除了系统默认提供的那些字符之外的其他个性化字符。这导致用户无法直接在系统提供的输入法中输入他们想要的字符或符号来命名他们的群聊，从而影响了用户体验。</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>创建 群聊 过程 试图 填写 群名 系统 默认 输入法 限制 输入 具体来说 只能 第三方 输入法 输入 系统 默认 提供 字符 之外 个性化 字符 无法 系统 提供 输入法 输入 想要 字符 符号 命名 群聊</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10010000008323</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>该软件在创建群组名称时存在显示问题。当用户尝试输入超过64个字符的名称时，后续的字符无法正常显示在对话框中。这意味着用户可能只能看到前64个字符，而后面的字符被截断了，导致无法完整地输入群组名称。</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>创建 群组 名称 输入 超过 64 个字符 名称 后续 字符 无法 正常 对话框 意味着 只能 看到 前 64 个字符 后面 字符 截断 无法 完整 输入 群组 名称</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10010000008329</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>问题描述：在尝试创建新群组时，用户输入的群名称没有明确提示字符数的限制，只有在超过64个字符时才出现提示。这可能会导致用户误解群名称的长度限制，并可能导致无法成功创建群组。</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>创建 新 群组 输入 群 名称 没有 明确 提示 字符 数 限制 超过 64 个字符 时才 出现 提示 误解 群 名称 长度 限制 无法 成功 创建 群组</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10010000008153</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>该软件在创建群聊时，当用户尝试输入的群名称字符数达到最大限制时，并没有给出任何提示信息告知用户已达到最大字数限制。这可能会导致用户继续输入，直到他们尝试创建群聊时才发现名称已被截断或无法创建。</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>创建 群聊 输入 群 名称 字符 数 达到 最大 限制 没有 给出 提示信息 告知 达到 最大 字数 限制 继续 输入 创建 群聊 时才 发现 名称 截断 无法 创建</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10010000008008</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>在创建群组的过程中，用户在第一步勾选好友后，进入到第二步填写群名称时，界面并未提供字符数限制的提示。然而，当用户尝试输入的字符数达到或超过系统设定的最大限制时，界面会阻止用户继续输入，并且没有给出任何关于字符数超限的用户提示。这可能导致用户无法完成群组名称的设置，从而影响整个创建过程。</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>创建 群组 过程 第一步 勾选 好友 进入 第二步 填写 群 名称 界面 并未 提供 字符 数 限制 提示 输入 字符 数 达到 超过 系统 设定 最大 限制 界面 阻止 继续 输入 没有 给出 字符 数 超限 提示 无法 完成 群组 名称 设置 整个 创建 过程</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10010000007900</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>该软件在处理群信息时存在一个bug。当用户尝试创建一个新群组并设置其名称时，软件不允许使用大的表情符号、图片或字符数超过64个字符的输入。此外，如果群名以空格开头，则不会显示该空格。然而，这个规则似乎并没有完全按照预期工作，导致在某些情况下，群名称可能无法正确显示。</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>处理 群 信息 创建 新 群组 设置 名称 软件 允许 表情符号 图片 字符 数 超过 64 个字符 输入 群名 空格 开头 不会 空格 规则 没有 完全 预期 工作 情况 群 名称 无法 正确</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10010000008893</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>问题描述：在发起群聊时，当用户尝试设置群名称时，系统并没有提供明确的字符限制提示。这导致用户可能不知道他们输入的群名称是否超出了允许的最大字符数，从而影响了用户的使用体验。</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>发起 群聊 设置 群 名称 系统 没有 提供 明确 字符 限制 提示 知道 输入 群 名称 是否 超出 允许 最大 字符 数</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10010000007980</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>在添加群成员的界面中，当用户尝试使用搜索功能并输入群成员的名称时，发现一旦输入了错误的或部分的用户名，系统并没有提供任何删除或修改字符的功能。相反，如果用户想要删除已输入的部分名称，他们只能点击“×”按钮来清空整个输入框的内容。这可能会导致用户在尝试添加新成员时遇到困难，因为他们不能仅删除输入错误的一部分，而必须重新开始输入。</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>添加 群 成员 界面 搜索 输入 群 成员 名称 发现 输入 错误 部分 用户名 系统 没有 提供 删除 修改 字符 相反 想要 删除 输入 部分 名称 只能 点击 × 按钮 清空 整个 输入框 内容 添加 新 成员 遇到困难 不能 仅 删除 输入 错误 一部分 必须 重新 输入</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10010000008170</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>该bug描述如下：
 在用户尝试创建群组并为其命名时，当前系统并没有提供字数提示的最大值和当前所输入的字数。这可能导致用户不知道他们已经输入了多少字符，从而无法确保群组名称符合平台的要求或限制。</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t xml:space="preserve">
  创建 群组 命名 当前 系统 没有 提供 字数 提示 最大值 当前 输入 字数 知道 输入 字符 无法 确保 群组 名称 符合 平台 要求 限制</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10010000008940</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>该bug描述为：在创建群组的过程中，当邀请人数超过20人并且群名称字符数超过64个限制时，系统给出的提示信息不明确。用户无法准确判断是人数的限制还是群名称长度的限制导致的操作失败或警告。</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>创建 群组 过程 邀请 人数 超过 20 群 名称 字符 数 超过 64 限制 系统 给出 提示信息 明确 无法 准确 判断 人数 限制 群 名称 长度 限制 失败 警告</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10010000009949</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>问题描述：
 在创建群组名称的过程中，用户被限制不能输入超过一定字符长度，但在成功创建群组后，用户可以无限制地输入群组名称。这种不一致的处理方式可能会导致用户困惑和操作上的不一致感。</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t xml:space="preserve">
  创建 群组 名称 过程 限制 不能 输入 超过 一定 字符 长度 成功 创建 群组 限制 输入 群组 名称 一致 处理 方式 困惑 一致 感</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10010000008215</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>该软件在用户尝试输入群名称时，没有提供适当的提示来通知用户字符数的上限。当用户的输入超过64个字符时，界面并没有给出任何反馈或警告，这导致用户无法得知他们已经达到了输入限制。为了提高用户体验和防止潜在的错误，应该在此处添加一个弹窗或警告，以告知用户字符数的上限。</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>输入 群 名称 没有 提供 适当 提示 通知 字符 数 上限 输入 超过 64 个字符 界面 没有 给出 反馈 警告 无法 得知 达到 输入 限制 提高 防止 潜在 错误 应该 添加 弹窗 警告 告知 字符 数 上限</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10010000008363</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>问题描述：在创建群聊时，用户试图填写群信息。根据系统要求，群的名称应不超过64个字符。然而，当用户输入名称时，系统并未提供任何关于是否超出有效字符数的提示信息。这可能导致用户在不知情的情况下创建了名称超过限制的群聊，从而引发后续的问题或不便。</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>创建 群聊 试图 填写 群 信息 系统 要求 群 名称 应 超过 64 个字符 输入 名称 系统 并未 提供 是否 超出 有效 字符 数 提示信息 不知情 情况 创建 名称 超过 限制 群聊 引发 后续 不便</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10010000008473</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="C56" t="n">
+        <v>4</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>该软件的字符输入限制设置过小，导致用户在尝试一次性输入长字符串时，系统无法正确处理和显示所有输入的字符。这可能会影响用户的输入体验，造成信息输入错误或丢失。</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>字符 输入 限制 设置 一次性 输入 长 字符串 系统 无法 正确处理 输入 字符 输入 造成 信息 输入 错误 丢失</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10010000009231</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>在输入界面中，当尝试在背景虚化的“群名称”文字下方输入字符时，输入的内容会被立即删除，并未显示任何字符。此外，该界面并没有提供关于群名称长度的明确提示，如“最多不得超过64个字符”。这可能导致用户无法准确知道他们输入的群名称的长度限制，从而可能违反了某些规则或期望。</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>输入 界面 背景 虚化 群 名称 文字 下方 输入 字符 输入 内容 立即 删除 并未 字符 界面 没有 提供 群 名称 长度 明确 提示 超过 64 个字符 无法 准确 知道 输入 群 名称 长度 限制 违反 规则 期望</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10010000008410</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>在软件的群组加入验证界面中，当用户尝试输入超过255个字符的验证信息时，系统并没有阻止用户继续输入。尽管系统提示超出长度限制，但用户仍然可以持续输入，直至达到或超过这个上限。这可能会导致验证过程出现问题或者数据溢出。建议对该功能进行优化，确保当用户输入超过255个字符时，界面不再响应新的输入操作，以保护系统的正常运行和数据的安全性。</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>软件 群组 加入 验证 界面 输入 超过 255 个字符 验证 信息 系统 没有 阻止 继续 输入 系统 提示 超出 长度 限制 仍然 持续 输入 直至 达到 超过 上限 验证 过程 出现 数据 溢出 建议 进行 优化 确保 输入 超过 255 个字符 界面 不再 响应 新 输入 保护 系统 正常 运行 数据 安全性</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10010000008589</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>在查找群的界面中，用户输入字段允许无限字符输入，导致无法正确显示或加载结果。与此相反，当尝试创建新的群时，系统限制了字符数只能输入64个字符，这可能导致创建新群的功能受限。这两个问题都与输入和输出的限制有关，但它们在查找群功能和创建群功能上表现出不同的错误行为。</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>查找 群 界面 输入 字 段 允许 无限 字符 输入 无法 正确 加载 与此相反 创建 新 群时 系统 限制 字符 数 只能 输入 64 个字符 创建 新群 受限 两个 输入 输出 限制 查找 群 创建 群 表现 出 不同 错误行为</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10010000008355</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>问题描述：当用户尝试创建一个群组并为其命名时，尽管名称超过了64个字符的限制，应用程序并没有给出任何提示或警告。</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>创建 群组 命名 名称 超过 64 个字符 限制 应用程序 没有 给出 提示 警告</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10010000008448</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>该软件在规定的字数限制下，只能输入225个字，这远低于预期的字数需求。</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>规定 字数 限制 只能 输入 225 字 这远 低于 预期 字数 需求</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10010000009941</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>在尝试申请加入群时，用户界面没有提供关于输入超过255个字的动态提示。虽然用户可以继续输入申请理由，但是系统并没有给出任何关于字符限制的警告或提示，这与预期结果不符，即应该有一个动态窗口来告知用户他们的输入已经超过了允许的最大字符数。</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>申请加入 群时 用户界面 没有 提供 输入 超过 255 字 动态 提示 继续 输入 申请理由 系统 没有 给出 字符 限制 警告 提示 预期 不符 应该 动态 窗口 告知 输入 超过 允许 最大 字符 数</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10010000009956</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>10.创建群名以及申请加入群填写申请理由的时候，超过限制字数还可以继续输入，虽然最终创建的结果是在规定字数以内，但是软甲提醒的不明显。</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>10 . 创建 群名 申请加入 群 填写 申请理由 超过 限制 字数 继续 输入 最终 创建 规定 字数 以内 软甲 提醒 明显</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10010000008860</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>当尝试在群名称字段中输入超过64个字符时，系统并未提供任何错误提示或限制信息。用户在超出字符限制后仍可继续输入，这可能导致群名称无法正确保存，且可能对用户的使用体验造成混淆和不便。</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>群 名称 字段 输入 超过 64 个字符 系统 并未 提供 错误 提示 限制 信息 超出 字符 限制 继续 输入 群 名称 无法 正确 保存 造成 混淆 不便</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10010000009838</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>该软件界面在输入申请理由时存在显示问题。用户在尝试输入字符时，只能看到一行的输入内容，而无法完全显示所有已输入的字符。这种设计限制了用户的输入体验，使得在编写较长的理由或信息时变得困难和不便。</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>界面 输入 申请理由 输入 字符 只能 看到 一行 输入 内容 无法 完全 输入 字符 设计 限制 输入 编写 较长 理由 信息 变得 困难 不便</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10010000009059</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>该界面在用户注册时存在一个输入限制的问题。具体来说，当用户尝试在手机号码或邮箱输入框中输入英文字符时，系统并未允许这一操作。这可能是因为软件的测试环境（可能是手机）不支持英文字符输入，或者是程序本身设计时就仅支持数字输入。这个问题可能会导致用户体验下降，因为它限制了用户的输入选项，可能会造成不便。</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>界面 用户注册 输入 限制 具体来说 手机号码 邮箱 输入框 输入 英文 字符 系统 并未 允许 这一 是因为 软件 测试环境 手机 支持 英文 字符 输入 程序 设计 仅 支持 数字 输入 下降 限制 输入 选项 造成 不便</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10010000009418</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>问题描述：在创建群组过程中，用户输入的群名称没有明确的提示或限制，导致用户可能错误地认为群名称可以超过64个字符的限制。</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>创建 群组 过程 输入 群 名称 没有 明确 提示 限制 错误 认为 群 名称 超过 64 个字符 限制</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>用户体验</t>
         </is>
       </c>
     </row>
